--- a/ref/quiz3a.xlsx
+++ b/ref/quiz3a.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khang\Desktop\webpages\rmcards\ref\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>tomb of eurysaces</t>
   </si>
@@ -176,6 +181,75 @@
   </si>
   <si>
     <t>quiz3/14.png</t>
+  </si>
+  <si>
+    <t>creusa</t>
+  </si>
+  <si>
+    <t>ludovisi sarcophagus</t>
+  </si>
+  <si>
+    <t>trebonius gallus statue</t>
+  </si>
+  <si>
+    <t>aurelian wall</t>
+  </si>
+  <si>
+    <t>tetrarchs</t>
+  </si>
+  <si>
+    <t>constantine arch</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>constinople</t>
+  </si>
+  <si>
+    <t>190ce</t>
+  </si>
+  <si>
+    <t>250-260ce</t>
+  </si>
+  <si>
+    <t>251-253ce</t>
+  </si>
+  <si>
+    <t>271-275ce</t>
+  </si>
+  <si>
+    <t>300ce</t>
+  </si>
+  <si>
+    <t>315ce</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>porphyry</t>
+  </si>
+  <si>
+    <t>quiz3/15.png</t>
+  </si>
+  <si>
+    <t>quiz3/16.png</t>
+  </si>
+  <si>
+    <t>quiz3/17.png</t>
+  </si>
+  <si>
+    <t>quiz3/18.png</t>
+  </si>
+  <si>
+    <t>quiz3/19.png</t>
+  </si>
+  <si>
+    <t>quiz3/20.png</t>
   </si>
 </sst>
 </file>
@@ -222,6 +296,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -270,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -768,6 +845,108 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
